--- a/biology/Histoire de la zoologie et de la botanique/Miguel_Trefaut_Rodrigues/Miguel_Trefaut_Rodrigues.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Miguel_Trefaut_Rodrigues/Miguel_Trefaut_Rodrigues.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Miguel Trefaut Urbano Rodrigues est un herpétologiste brésilien, né en 1953.
 Il est diplômé de l'Université Paris VII - Diderot puis de l'Université de São Paulo, il y travaille à l'Instituto de Biociências du Departamento de Zoologia.
@@ -512,13 +524,15 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Burlemarxia rodriguesii Menezes &amp; Semir,  1991(Monocotyledoneae, Velloziaceae)
 Cycloramphus migueli Heyer, 1988 (Anura, Cycloramphidae)
 Glaphyropoma rodriguesi de Pinna, 1992 (Siluriformes, Trichomycteridae)
-Liotyphlops trefauti Freire, Caramaschi &amp; Argolo, 2007 (Squamata, Anomalepididae)[1]
-Pantepuisaurus rodriguesi Kok, 2009 (Squamata, Gymnophthalmidae)[1]
+Liotyphlops trefauti Freire, Caramaschi &amp; Argolo, 2007 (Squamata, Anomalepididae)
+Pantepuisaurus rodriguesi Kok, 2009 (Squamata, Gymnophthalmidae)
 Trichomycterus trefauti Wosiacki, 2004 (Siluriformes, Trichomycteridae)</t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Quelques Taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Acratosaura spinosa Rodrigues, Cassimiro, De Freitas &amp; Santos Silva 2009
